--- a/biology/Zoologie/Gorfou_des_Snares/Gorfou_des_Snares.xlsx
+++ b/biology/Zoologie/Gorfou_des_Snares/Gorfou_des_Snares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudyptes robustus
 Le Gorfou des Snares (Eudyptes robustus) est une espèce d'oiseaux de la famille des Spheniscidae. Les gorfous des Snares vivent principalement sur les Snares en Nouvelle-Zélande. Comme les autres gorfous, ils se distinguent par une touffe de plume de chaque côté de sa tête appelée aigrette. La population est d’environ 30 000 couples.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pesant environ 3 kg et mesurant environ 50 à 60 cm, le gorfou des Snares possède un plumage noir sur le dos et blanc sur le ventre. Il porte particulièrement deux bandes blanches au-dessus des yeux partant à l’arrière de la tête, et se terminant en plume jaune clair. Il possède des yeux rouges mais pas aussi brillants que le Gorfou Sauteur. Il est souvent confondu avec le gorfou du Fiordland.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En vert, les zones où le Gorfou des Snares vit.
 En rouge, les zones de reproduction.
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gorfou des Snares se nourrit principalement de krill, puis de calmar et de poisson. Il arrive parfois de le voir perché sur des arbustes (Olearia lyallii).
 </t>
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle retourne dans les colonies pour préparer le nid en août. Il est construit à l’aide de pierres et de bois, ainsi que de la végétation. La femelle le suit peu de temps après et pond deux œufs fin septembre / début octobre. Le premier œuf n’est pas viable (de très rares cas de réussite).
 Après avoir couvé l’œuf pendant 10 jours, le mâle part en mer pour 12 jours laissant la femelle couver. À son retour la femelle part enfin en mer se nourrir. Le mâle couve à son tour jusqu’à l’éclosion qui se produit entre 37 et 39 jours suivant la ponte. Le mâle reste alors à garder et couver le petit encore 3 semaines durant lesquelles la femelle fait des aller-retour entre la mer et le nid pour nourrir le poussin par régurgitation.
